--- a/teaching/traditional_assets/database/data/canada/canada_auto_truck.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_auto_truck.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-11.42857142857143</v>
+        <v>-24.69072164948454</v>
       </c>
       <c r="H2">
-        <v>-26.81318681318681</v>
+        <v>-35.56701030927835</v>
       </c>
       <c r="I2">
-        <v>-38.85030123626794</v>
+        <v>-38.83161512027492</v>
       </c>
       <c r="J2">
-        <v>-38.85030123626794</v>
+        <v>-38.83161512027492</v>
       </c>
       <c r="K2">
-        <v>-18.7</v>
+        <v>-28.4</v>
       </c>
       <c r="L2">
-        <v>-41.09890109890109</v>
+        <v>-48.79725085910653</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,70 +630,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>12.3</v>
+        <v>75.8</v>
       </c>
       <c r="V2">
-        <v>0.1455621301775148</v>
+        <v>0.1568384026484585</v>
       </c>
       <c r="W2">
-        <v>-1.438461538461538</v>
+        <v>-1.551912568306011</v>
       </c>
       <c r="X2">
-        <v>0.06464419345242466</v>
+        <v>0.05709469244900058</v>
       </c>
       <c r="Y2">
-        <v>-1.503105731913963</v>
+        <v>-1.609007260755011</v>
       </c>
       <c r="Z2">
-        <v>0.1009443216494381</v>
+        <v>0.08672329012069738</v>
       </c>
       <c r="AA2">
-        <v>-3.921717304171393</v>
+        <v>-3.367605423930861</v>
       </c>
       <c r="AB2">
-        <v>0.06351783415812612</v>
+        <v>0.05714411778479069</v>
       </c>
       <c r="AC2">
-        <v>-3.985235138329519</v>
+        <v>-3.424749541715652</v>
       </c>
       <c r="AD2">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="AE2">
-        <v>1.434435312509554</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.674435312509554</v>
+        <v>1.01</v>
       </c>
       <c r="AG2">
-        <v>-9.625564687490446</v>
+        <v>-74.78999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.03067912402210619</v>
+        <v>0.002085441143069521</v>
       </c>
       <c r="AI2">
-        <v>0.1275092879813775</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="AJ2">
-        <v>-0.1285560905710399</v>
+        <v>-0.1830799735624587</v>
       </c>
       <c r="AK2">
-        <v>-1.109647411124186</v>
+        <v>-12.44425956738768</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.07099999999999999</v>
+        <v>-0.113</v>
       </c>
       <c r="AN2">
-        <v>-0.07255705090696314</v>
+        <v>-0.04508928571428572</v>
       </c>
       <c r="AP2">
-        <v>0.5632278927729927</v>
+        <v>3.338839285714286</v>
       </c>
       <c r="AQ2">
-        <v>253.5211267605634</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-11.42857142857143</v>
+        <v>-24.69072164948454</v>
       </c>
       <c r="H3">
-        <v>-26.81318681318681</v>
+        <v>-35.56701030927835</v>
       </c>
       <c r="I3">
-        <v>-38.85030123626794</v>
+        <v>-38.83161512027492</v>
       </c>
       <c r="J3">
-        <v>-38.85030123626794</v>
+        <v>-38.83161512027492</v>
       </c>
       <c r="K3">
-        <v>-18.7</v>
+        <v>-28.4</v>
       </c>
       <c r="L3">
-        <v>-41.09890109890109</v>
+        <v>-48.79725085910653</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -752,70 +752,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>12.3</v>
+        <v>75.8</v>
       </c>
       <c r="V3">
-        <v>0.1455621301775148</v>
+        <v>0.1568384026484585</v>
       </c>
       <c r="W3">
-        <v>-1.438461538461538</v>
+        <v>-1.551912568306011</v>
       </c>
       <c r="X3">
-        <v>0.06464419345242466</v>
+        <v>0.05709469244900058</v>
       </c>
       <c r="Y3">
-        <v>-1.503105731913963</v>
+        <v>-1.609007260755011</v>
       </c>
       <c r="Z3">
-        <v>0.1009443216494381</v>
+        <v>0.08672329012069738</v>
       </c>
       <c r="AA3">
-        <v>-3.921717304171393</v>
+        <v>-3.367605423930861</v>
       </c>
       <c r="AB3">
-        <v>0.06351783415812612</v>
+        <v>0.05714411778479069</v>
       </c>
       <c r="AC3">
-        <v>-3.985235138329519</v>
+        <v>-3.424749541715652</v>
       </c>
       <c r="AD3">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="AE3">
-        <v>1.434435312509554</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.674435312509554</v>
+        <v>1.01</v>
       </c>
       <c r="AG3">
-        <v>-9.625564687490446</v>
+        <v>-74.78999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.03067912402210619</v>
+        <v>0.002085441143069521</v>
       </c>
       <c r="AI3">
-        <v>0.1275092879813775</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="AJ3">
-        <v>-0.1285560905710399</v>
+        <v>-0.1830799735624587</v>
       </c>
       <c r="AK3">
-        <v>-1.109647411124186</v>
+        <v>-12.44425956738768</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.07099999999999999</v>
+        <v>-0.113</v>
       </c>
       <c r="AN3">
-        <v>-0.07255705090696314</v>
+        <v>-0.04508928571428572</v>
       </c>
       <c r="AP3">
-        <v>0.5632278927729927</v>
+        <v>3.338839285714286</v>
       </c>
       <c r="AQ3">
-        <v>253.5211267605634</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
